--- a/PES/SRB Invoices/1067  Invoice for Nueplex Cinema DHA Phase VIII for October 2024.xlsx
+++ b/PES/SRB Invoices/1067  Invoice for Nueplex Cinema DHA Phase VIII for October 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83687376-5799-4C41-9825-2DAAFD5FD800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99FD10-4171-441F-8D28-71A3DB0BBB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>RATE</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>for the Month of October 2024</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -420,6 +426,27 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,27 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1004,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:L52"/>
+  <dimension ref="A6:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1058,16 +1064,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1087,11 +1093,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1100,11 +1106,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1124,85 +1130,85 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="51"/>
+      <c r="H18" s="58"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="60"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="24"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="51"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1227,11 +1233,11 @@
       <c r="A25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="28" t="s">
         <v>13</v>
       </c>
@@ -1259,11 +1265,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1272,9 +1278,9 @@
     </row>
     <row r="28" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1283,41 +1289,41 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="49">
         <v>1</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61">
-        <v>340000</v>
-      </c>
-      <c r="F29" s="62">
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45">
+        <v>374000</v>
+      </c>
+      <c r="F29" s="46">
         <v>0.15</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="47">
         <f>E29*15%</f>
-        <v>51000</v>
-      </c>
-      <c r="H29" s="50">
+        <v>56100</v>
+      </c>
+      <c r="H29" s="57">
         <f>E29+G29</f>
-        <v>391000</v>
+        <v>430100</v>
       </c>
       <c r="I29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="8"/>
       <c r="J30" s="39">
         <v>340000</v>
@@ -1353,7 +1359,7 @@
       <c r="J32" s="39"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
@@ -1362,10 +1368,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="25"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="10">
+        <f>H37*4%</f>
+        <v>17204</v>
+      </c>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1374,9 +1383,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="25"/>
+      <c r="J34" s="39">
+        <f>G29*20%</f>
+        <v>11220</v>
+      </c>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1385,9 +1398,18 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="25"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="39">
+        <f>H37-J33-J34</f>
+        <v>401676</v>
+      </c>
+      <c r="L35" s="8">
+        <v>365160</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1396,70 +1418,78 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="25"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="8">
+        <v>401676</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="16">
         <f>SUM(E29:E35)</f>
-        <v>340000</v>
+        <v>374000</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18">
         <f>SUM(G29:G35)</f>
-        <v>51000</v>
+        <v>56100</v>
       </c>
       <c r="H37" s="19">
         <f>SUM(H29:H35)</f>
-        <v>391000</v>
+        <v>430100</v>
       </c>
       <c r="J37" s="40"/>
-      <c r="L37" s="21"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="21">
+        <f>SUM(L35:L36)</f>
+        <v>766836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="3"/>
       <c r="C40" s="15"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E47" s="23"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
@@ -1470,11 +1500,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1491,6 +1516,11 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
